--- a/文档/个人文档/李安妮/06.个人日报_李安妮 .xlsx
+++ b/文档/个人文档/李安妮/06.个人日报_李安妮 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="8-3" sheetId="8" r:id="rId8"/>
     <sheet name="8-2" sheetId="9" r:id="rId9"/>
     <sheet name="8-1" sheetId="10" r:id="rId10"/>
+    <sheet name="8-9" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -282,6 +283,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>解决一些小</t>
     </r>
     <r>
@@ -298,6 +304,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>多测试</t>
     </r>
     <r>
@@ -379,6 +390,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>解决切换主题时弹框的</t>
     </r>
     <r>
@@ -392,6 +408,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>去掉样式</t>
     </r>
     <r>
@@ -544,10 +565,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="67">
     <font>
@@ -801,6 +822,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -826,8 +854,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -838,46 +877,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -897,16 +912,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -914,6 +933,19 @@
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -926,20 +958,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="35">
@@ -969,7 +990,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,7 +1032,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,73 +1104,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,13 +1134,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,55 +1152,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1589,6 +1610,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1615,9 +1651,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1633,30 +1680,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1679,19 +1702,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color indexed="62"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1701,157 +1722,157 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="19" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="19" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="22" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="28" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -8832,6 +8853,79 @@
         </xdr:spPr>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7915275" y="76200"/>
+          <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16916,6 +17010,455 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47.25" customHeight="1" spans="2:10">
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="7.5" customHeight="1" spans="2:10">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="21" customHeight="1" spans="2:10">
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14">
+        <v>42956</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="66"/>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="67"/>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="23">
+        <v>42956</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="68"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="26">
+        <v>42956</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="69"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="70"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B10" s="35">
+        <v>1</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B11" s="35">
+        <v>2</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B12" s="41">
+        <v>3</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="73"/>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B13" s="35">
+        <v>4</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="74"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B14" s="35">
+        <v>5</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="74"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B15" s="41">
+        <v>6</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="74"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B16" s="35">
+        <v>7</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="74"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B17" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46">
+        <f>SUM(F10:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
+      <c r="B18" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="70"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="77"/>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B20" s="52">
+        <v>1</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="78"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B21" s="57">
+        <v>2</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="78"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B22" s="58">
+        <v>3</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="79"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="2:10">
+      <c r="B24" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:10">
+      <c r="B25" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="2:10">
+      <c r="B26" s="63"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:10">
+      <c r="B27" s="63"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
@@ -17488,8 +18031,8 @@
   <sheetPr/>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:I12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/文档/个人文档/李安妮/06.个人日报_李安妮 .xlsx
+++ b/文档/个人文档/李安妮/06.个人日报_李安妮 .xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="10"/>
+    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
     <sheet name="文件修改控制" sheetId="5" r:id="rId2"/>
     <sheet name="封面" sheetId="6" r:id="rId3"/>
-    <sheet name="8-8" sheetId="12" r:id="rId4"/>
-    <sheet name="8-7" sheetId="11" r:id="rId5"/>
-    <sheet name="8-6" sheetId="1" r:id="rId6"/>
-    <sheet name="8-4" sheetId="7" r:id="rId7"/>
-    <sheet name="8-3" sheetId="8" r:id="rId8"/>
-    <sheet name="8-2" sheetId="9" r:id="rId9"/>
-    <sheet name="8-1" sheetId="10" r:id="rId10"/>
-    <sheet name="8-9" sheetId="13" r:id="rId11"/>
+    <sheet name="8-10" sheetId="14" r:id="rId4"/>
+    <sheet name="8-9" sheetId="13" r:id="rId5"/>
+    <sheet name="8-8" sheetId="12" r:id="rId6"/>
+    <sheet name="8-7" sheetId="11" r:id="rId7"/>
+    <sheet name="8-6" sheetId="1" r:id="rId8"/>
+    <sheet name="8-4" sheetId="7" r:id="rId9"/>
+    <sheet name="8-3" sheetId="8" r:id="rId10"/>
+    <sheet name="8-2" sheetId="9" r:id="rId11"/>
+    <sheet name="8-1" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -191,6 +192,9 @@
     <t>小组编号：</t>
   </si>
   <si>
+    <t>GDGM422</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -214,7 +218,7 @@
     <t>关键任务</t>
   </si>
   <si>
-    <t>完善项目</t>
+    <t>给订单管理添加一个查询功能、完善项目文档、发布项目</t>
   </si>
   <si>
     <t>计划日期</t>
@@ -258,10 +262,10 @@
     <t>任务是否完成</t>
   </si>
   <si>
-    <t>加个下拉框</t>
+    <t>给订单管理添加一个查询功能</t>
   </si>
   <si>
-    <t>0.5h</t>
+    <t>1h</t>
   </si>
   <si>
     <t>实现功能</t>
@@ -270,7 +274,60 @@
     <t>是</t>
   </si>
   <si>
+    <t>完善项目文档</t>
+  </si>
+  <si>
+    <t>完成任务</t>
+  </si>
+  <si>
     <t>发布项目</t>
+  </si>
+  <si>
+    <t>1.5h</t>
+  </si>
+  <si>
+    <t>只剩下背景图片没实现出来</t>
+  </si>
+  <si>
+    <t>算是</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主要问题</t>
+    </r>
+  </si>
+  <si>
+    <t>问题、建议及反馈</t>
+  </si>
+  <si>
+    <t>措     施</t>
+  </si>
+  <si>
+    <t>注：文件名称格式为 个人日报_姓名.xls，Sheet名 为当天日期</t>
+  </si>
+  <si>
+    <t>例如：个人日报_李平.xls</t>
+  </si>
+  <si>
+    <t>完善项目</t>
   </si>
   <si>
     <t>3h</t>
@@ -298,9 +355,6 @@
       </rPr>
       <t>bug</t>
     </r>
-  </si>
-  <si>
-    <t>2h</t>
   </si>
   <si>
     <r>
@@ -345,39 +399,13 @@
     </r>
   </si>
   <si>
-    <t>合计</t>
+    <t>加个下拉框</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主要问题</t>
-    </r>
+    <t>0.5h</t>
   </si>
   <si>
-    <t>问题、建议及反馈</t>
-  </si>
-  <si>
-    <t>措     施</t>
-  </si>
-  <si>
-    <t>注：文件名称格式为 个人日报_姓名.xls，Sheet名 为当天日期</t>
-  </si>
-  <si>
-    <t>例如：个人日报_李平.xls</t>
+    <t>2h</t>
   </si>
   <si>
     <t>修修样式、美化页面、解决dug、加一些检验</t>
@@ -565,9 +593,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="67">
@@ -825,36 +853,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -865,48 +876,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,9 +900,72 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -944,12 +977,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
@@ -958,7 +986,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1003,54 +1031,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,6 +1084,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1134,18 +1162,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1165,6 +1181,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,25 +1639,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="63"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1651,35 +1670,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1703,6 +1711,15 @@
       <right/>
       <top/>
       <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color indexed="22"/>
       </bottom>
       <diagonal/>
@@ -1711,8 +1728,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1722,157 +1750,157 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="23" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="28" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="28" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -8931,6 +8959,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7915275" y="76200"/>
+          <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -15528,7 +15629,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 1" descr="b"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -15674,7 +15775,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPr id="2050" name="Picture 1" descr="b"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -16566,8 +16667,8 @@
   <sheetPr/>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -16620,7 +16721,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="14">
-        <v>42948</v>
+        <v>42950</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>30</v>
@@ -16631,12 +16732,14 @@
       <c r="H3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="64" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" s="65"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B4" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -16649,10 +16752,10 @@
     </row>
     <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B5" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -16664,10 +16767,10 @@
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B6" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="23">
-        <v>42948</v>
+        <v>42950</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -16679,10 +16782,10 @@
     </row>
     <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B7" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="26">
-        <v>42948</v>
+        <v>42950</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -16694,7 +16797,7 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B8" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -16707,23 +16810,23 @@
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B9" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
       <c r="J9" s="71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
@@ -16731,42 +16834,34 @@
         <v>1</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="F10" s="38" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="72"/>
       <c r="J10" s="73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B11" s="35">
         <v>2</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>76</v>
-      </c>
+      <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
-      <c r="F11" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>73</v>
-      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="40"/>
       <c r="I11" s="72"/>
-      <c r="J11" s="73" t="s">
-        <v>47</v>
-      </c>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B12" s="41">
@@ -16864,7 +16959,7 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B19" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>57</v>
@@ -17015,8 +17110,8 @@
   <sheetPr/>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17069,7 +17164,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="14">
-        <v>42956</v>
+        <v>42949</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>30</v>
@@ -17080,12 +17175,14 @@
       <c r="H3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="64" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" s="65"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B4" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -17098,10 +17195,10 @@
     </row>
     <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B5" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -17113,10 +17210,10 @@
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B6" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="23">
-        <v>42956</v>
+        <v>42949</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -17128,10 +17225,10 @@
     </row>
     <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B7" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="26">
-        <v>42956</v>
+        <v>42949</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -17143,7 +17240,7 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B8" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -17156,23 +17253,23 @@
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B9" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
       <c r="J9" s="71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
@@ -17180,55 +17277,47 @@
         <v>1</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="F10" s="38" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="72"/>
       <c r="J10" s="73" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B11" s="35">
         <v>2</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>52</v>
-      </c>
+      <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
-      <c r="F11" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>54</v>
-      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="40"/>
       <c r="I11" s="72"/>
-      <c r="J11" s="73" t="s">
-        <v>47</v>
-      </c>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B12" s="41">
         <v>3</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="40"/>
       <c r="I12" s="72"/>
-      <c r="J12" s="73"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B13" s="35">
@@ -17313,7 +17402,458 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B19" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="77"/>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B20" s="52">
+        <v>1</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="78"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B21" s="57">
+        <v>2</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="78"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B22" s="58">
+        <v>3</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="79"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="2:10">
+      <c r="B24" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:10">
+      <c r="B25" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="2:10">
+      <c r="B26" s="63"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:10">
+      <c r="B27" s="63"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47.25" customHeight="1" spans="2:10">
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="7.5" customHeight="1" spans="2:10">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="21" customHeight="1" spans="2:10">
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14">
+        <v>42948</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="65"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="66"/>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="67"/>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="23">
+        <v>42948</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="68"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B7" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="26">
+        <v>42948</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="69"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B8" s="28" t="s">
         <v>39</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="70"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B10" s="35">
+        <v>1</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B11" s="35">
+        <v>2</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B12" s="41">
+        <v>3</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="74"/>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B13" s="35">
+        <v>4</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="74"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B14" s="35">
+        <v>5</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="74"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B15" s="41">
+        <v>6</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="74"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B16" s="35">
+        <v>7</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="74"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B17" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46">
+        <f>SUM(F10:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="22.5" customHeight="1" spans="2:10">
+      <c r="B18" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="70"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
+      <c r="B19" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>57</v>
@@ -18031,8 +18571,8 @@
   <sheetPr/>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18085,7 +18625,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="14">
-        <v>42955</v>
+        <v>42957</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>30</v>
@@ -18096,12 +18636,14 @@
       <c r="H3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="64" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" s="65"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B4" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -18114,10 +18656,10 @@
     </row>
     <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B5" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -18129,10 +18671,10 @@
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B6" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="23">
-        <v>42955</v>
+        <v>42957</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -18144,10 +18686,10 @@
     </row>
     <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B7" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="26">
-        <v>42955</v>
+        <v>42957</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -18159,7 +18701,7 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B8" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -18172,23 +18714,23 @@
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B9" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
       <c r="J9" s="71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
@@ -18196,20 +18738,20 @@
         <v>1</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="F10" s="38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="72"/>
       <c r="J10" s="73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
@@ -18217,12 +18759,12 @@
         <v>2</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
       <c r="F11" s="38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11" s="39" t="s">
         <v>50</v>
@@ -18230,7 +18772,7 @@
       <c r="H11" s="40"/>
       <c r="I11" s="72"/>
       <c r="J11" s="73" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
@@ -18238,20 +18780,20 @@
         <v>3</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="39" t="s">
         <v>53</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>54</v>
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="72"/>
       <c r="J12" s="73" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
@@ -18337,7 +18879,7 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B19" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>57</v>
@@ -18489,7 +19031,7 @@
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18542,7 +19084,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="14">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>30</v>
@@ -18553,12 +19095,14 @@
       <c r="H3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="64" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" s="65"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B4" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -18571,7 +19115,7 @@
     </row>
     <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B5" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>61</v>
@@ -18586,10 +19130,10 @@
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B6" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="23">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -18601,10 +19145,10 @@
     </row>
     <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B7" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="26">
-        <v>42954</v>
+        <v>42956</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -18616,7 +19160,7 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B8" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -18629,23 +19173,23 @@
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B9" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
       <c r="J9" s="71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
@@ -18653,12 +19197,12 @@
         <v>1</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="F10" s="38" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>63</v>
@@ -18666,7 +19210,7 @@
       <c r="H10" s="40"/>
       <c r="I10" s="72"/>
       <c r="J10" s="73" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
@@ -18674,42 +19218,34 @@
         <v>2</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
       <c r="F11" s="38" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="72"/>
       <c r="J11" s="73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B12" s="41">
         <v>3</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>52</v>
-      </c>
+      <c r="C12" s="36"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
-      <c r="F12" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>54</v>
-      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="40"/>
       <c r="I12" s="72"/>
-      <c r="J12" s="73" t="s">
-        <v>47</v>
-      </c>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B13" s="35">
@@ -18794,7 +19330,7 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B19" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>57</v>
@@ -18848,21 +19384,53 @@
       <c r="I22" s="62"/>
       <c r="J22" s="79"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="2:2">
+    <row r="24" s="1" customFormat="1" spans="2:10">
       <c r="B24" s="63" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="2:2">
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:10">
       <c r="B25" s="63" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="2:2">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="2:10">
       <c r="B26" s="63"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="2:2">
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:10">
       <c r="B27" s="63"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -18913,8 +19481,8 @@
   <sheetPr/>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18932,7 +19500,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47.25" customHeight="1" spans="2:10">
+    <row r="1" s="1" customFormat="1" ht="47.25" customHeight="1" spans="2:10">
       <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
@@ -18945,7 +19513,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" ht="7.5" customHeight="1" spans="2:10">
+    <row r="2" s="1" customFormat="1" ht="7.5" customHeight="1" spans="2:10">
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -18967,7 +19535,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="14">
-        <v>42953</v>
+        <v>42955</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>30</v>
@@ -18978,12 +19546,14 @@
       <c r="H3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="64" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" s="65"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B4" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -18996,10 +19566,10 @@
     </row>
     <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B5" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -19011,10 +19581,10 @@
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B6" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="23">
-        <v>42953</v>
+        <v>42955</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -19026,10 +19596,10 @@
     </row>
     <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B7" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="26">
-        <v>42953</v>
+        <v>42955</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -19041,7 +19611,7 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B8" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -19054,23 +19624,23 @@
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B9" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
       <c r="J9" s="71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
@@ -19083,42 +19653,58 @@
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="F10" s="38" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="72"/>
       <c r="J10" s="73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B11" s="35">
         <v>2</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="42"/>
+      <c r="F11" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="H11" s="40"/>
       <c r="I11" s="72"/>
-      <c r="J11" s="74"/>
+      <c r="J11" s="73" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B12" s="41">
         <v>3</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="36" t="s">
+        <v>65</v>
+      </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="42"/>
+      <c r="F12" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="H12" s="40"/>
       <c r="I12" s="72"/>
-      <c r="J12" s="74"/>
+      <c r="J12" s="73" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B13" s="35">
@@ -19203,7 +19789,7 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B19" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>57</v>
@@ -19257,21 +19843,53 @@
       <c r="I22" s="62"/>
       <c r="J22" s="79"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" s="1" customFormat="1" spans="2:10">
       <c r="B24" s="63" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:10">
       <c r="B25" s="63" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="2:10">
       <c r="B26" s="63"/>
-    </row>
-    <row r="27" spans="2:2">
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:10">
       <c r="B27" s="63"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -19311,9 +19929,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -19324,7 +19941,7 @@
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19377,7 +19994,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="14">
-        <v>42951</v>
+        <v>42954</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>30</v>
@@ -19388,12 +20005,14 @@
       <c r="H3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="64" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" s="65"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B4" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -19406,10 +20025,10 @@
     </row>
     <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B5" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -19421,10 +20040,10 @@
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B6" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="23">
-        <v>42951</v>
+        <v>42954</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -19436,10 +20055,10 @@
     </row>
     <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B7" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="26">
-        <v>42951</v>
+        <v>42954</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -19451,7 +20070,7 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B8" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -19464,23 +20083,23 @@
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B9" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
       <c r="J9" s="71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
@@ -19488,47 +20107,63 @@
         <v>1</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="F10" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="72"/>
       <c r="J10" s="73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B11" s="35">
         <v>2</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="36" t="s">
+        <v>73</v>
+      </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="42"/>
+      <c r="F11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="H11" s="40"/>
       <c r="I11" s="72"/>
-      <c r="J11" s="74"/>
+      <c r="J11" s="73" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B12" s="41">
         <v>3</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="36" t="s">
+        <v>65</v>
+      </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="42"/>
+      <c r="F12" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="H12" s="40"/>
       <c r="I12" s="72"/>
-      <c r="J12" s="74"/>
+      <c r="J12" s="73" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B13" s="35">
@@ -19613,7 +20248,7 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B19" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>57</v>
@@ -19732,8 +20367,8 @@
   <sheetPr/>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19751,7 +20386,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47.25" customHeight="1" spans="2:10">
+    <row r="1" ht="47.25" customHeight="1" spans="2:10">
       <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
@@ -19764,7 +20399,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="7.5" customHeight="1" spans="2:10">
+    <row r="2" ht="7.5" customHeight="1" spans="2:10">
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -19786,7 +20421,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="14">
-        <v>42950</v>
+        <v>42953</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>30</v>
@@ -19797,12 +20432,14 @@
       <c r="H3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="64" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" s="65"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B4" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -19815,10 +20452,10 @@
     </row>
     <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B5" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -19830,10 +20467,10 @@
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B6" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="23">
-        <v>42950</v>
+        <v>42953</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -19845,10 +20482,10 @@
     </row>
     <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B7" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="26">
-        <v>42950</v>
+        <v>42953</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -19860,7 +20497,7 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B8" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -19873,23 +20510,23 @@
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B9" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
       <c r="J9" s="71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
@@ -19897,20 +20534,20 @@
         <v>1</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="F10" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="72"/>
       <c r="J10" s="73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
@@ -20022,7 +20659,7 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B19" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>57</v>
@@ -20076,53 +20713,21 @@
       <c r="I22" s="62"/>
       <c r="J22" s="79"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="2:10">
+    <row r="24" spans="2:2">
       <c r="B24" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="2:10">
+    </row>
+    <row r="25" spans="2:2">
       <c r="B25" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="2:10">
+    </row>
+    <row r="26" spans="2:2">
       <c r="B26" s="63"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="2:10">
+    </row>
+    <row r="27" spans="2:2">
       <c r="B27" s="63"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -20162,8 +20767,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -20174,7 +20780,7 @@
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -20227,7 +20833,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="14">
-        <v>42949</v>
+        <v>42951</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>30</v>
@@ -20238,12 +20844,14 @@
       <c r="H3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="64" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" s="65"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B4" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -20256,10 +20864,10 @@
     </row>
     <row r="5" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B5" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -20271,10 +20879,10 @@
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B6" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="23">
-        <v>42949</v>
+        <v>42951</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -20286,10 +20894,10 @@
     </row>
     <row r="7" s="4" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B7" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="26">
-        <v>42949</v>
+        <v>42951</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -20301,7 +20909,7 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B8" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -20314,23 +20922,23 @@
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B9" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="33"/>
       <c r="J9" s="71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
@@ -20338,20 +20946,20 @@
         <v>1</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="F10" s="38" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="72"/>
       <c r="J10" s="73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
@@ -20463,7 +21071,7 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="2:10">
       <c r="B19" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>57</v>
@@ -20517,53 +21125,21 @@
       <c r="I22" s="62"/>
       <c r="J22" s="79"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="2:10">
+    <row r="24" s="1" customFormat="1" spans="2:2">
       <c r="B24" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="2:10">
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:2">
       <c r="B25" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="2:10">
+    </row>
+    <row r="26" s="1" customFormat="1" spans="2:2">
       <c r="B26" s="63"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="2:10">
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:2">
       <c r="B27" s="63"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
     </row>
   </sheetData>
   <mergeCells count="30">
